--- a/posesiones/1381259.xlsx
+++ b/posesiones/1381259.xlsx
@@ -1922,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>26</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>24</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>9</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>22</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>27</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>6</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>12</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>17</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>23</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>21</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>22</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>11</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>37</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60">
         <v>20</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R62">
         <v>10</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64">
         <v>26</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>14</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>5</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R78">
         <v>20</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>12</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>12</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6330,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R92">
         <v>18</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R94">
         <v>25</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R96">
         <v>8</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>12</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>9</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R106">
         <v>8</v>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7121,10 +7121,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7353,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R114">
         <v>19</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>18</v>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>21</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R130">
         <v>22</v>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R133">
         <v>38</v>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R134">
         <v>5</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R136">
         <v>7</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R138">
         <v>4</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R140">
         <v>19</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R146">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R151">
         <v>23</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9326,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R153">
         <v>8</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R155">
         <v>10</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R166">
         <v>21</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R174">
         <v>7</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10437,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R176">
         <v>11</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R178">
         <v>19</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R179">
         <v>11</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10831,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R184">
         <v>17</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>13</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R192">
         <v>22</v>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R196">
         <v>20</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R198">
         <v>4</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11716,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R203">
         <v>27</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11869,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R205">
         <v>18</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R207">
         <v>17</v>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R219">
         <v>40</v>
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>15</v>
@@ -12648,7 +12648,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12698,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R222">
         <v>19</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12986,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R228">
         <v>24</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R229">
         <v>19</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R233">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R234">
         <v>13</v>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R236">
         <v>15</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:17">
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:17">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -14185,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:17">
@@ -14232,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:17">
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="256" spans="1:17">
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14429,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R258">
         <v>21</v>
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R259">
         <v>12</v>
@@ -14535,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R260">
         <v>1</v>
@@ -14579,10 +14579,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14905,10 +14905,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14958,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R269">
         <v>13</v>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R271">
         <v>20</v>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R272">
         <v>17</v>
@@ -15167,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R278">
         <v>28</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R281">
         <v>7</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R283">
         <v>11</v>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R285">
         <v>5</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16193,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R294">
         <v>28</v>
@@ -16246,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R295">
         <v>14</v>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16349,7 +16349,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R297">
         <v>5</v>
@@ -16402,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R298">
         <v>14</v>
@@ -16452,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R304">
         <v>27</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16793,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R306">
         <v>11</v>
@@ -16846,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16896,7 +16896,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R310">
         <v>25</v>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R312">
         <v>5</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R314">
         <v>5</v>
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R316">
         <v>18</v>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17446,7 +17446,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R319">
         <v>23</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R324">
         <v>0</v>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17790,7 +17790,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R326">
         <v>16</v>
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R333">
         <v>19</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18228,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R335">
         <v>18</v>
@@ -18281,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18331,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R337">
         <v>6</v>
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18431,7 +18431,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R339">
         <v>16</v>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18534,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R341">
         <v>16</v>
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18628,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18772,7 +18772,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R346">
         <v>20</v>
@@ -18825,7 +18825,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18875,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R348">
         <v>11</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19019,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19116,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>18</v>
@@ -19166,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19213,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19260,7 +19260,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19307,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19501,7 +19501,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R361">
         <v>26</v>
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19604,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R363">
         <v>22</v>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19704,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R365">
         <v>4</v>
@@ -19757,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R366">
         <v>19</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19948,7 +19948,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19998,7 +19998,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R371">
         <v>24</v>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20098,7 +20098,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R373">
         <v>10</v>
@@ -20151,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20201,7 +20201,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20254,7 +20254,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20304,7 +20304,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R377">
         <v>12</v>
@@ -20357,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20548,7 +20548,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R382">
         <v>15</v>
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20645,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20742,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R386">
         <v>13</v>
@@ -20792,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20889,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R389">
         <v>2</v>
@@ -20942,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R390">
         <v>2</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21033,10 +21033,10 @@
         <v>1</v>
       </c>
       <c r="P392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q392">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21130,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21171,10 +21171,10 @@
         <v>1</v>
       </c>
       <c r="P395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q395">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21221,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21318,7 +21318,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R398">
         <v>24</v>
@@ -21368,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21465,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R405">
         <v>29</v>
@@ -21709,7 +21709,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R406">
         <v>13</v>
@@ -21762,7 +21762,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R407">
         <v>25</v>
@@ -21812,7 +21812,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21862,7 +21862,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R409">
         <v>25</v>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21965,7 +21965,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R411">
         <v>18</v>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22065,7 +22065,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22112,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22159,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22256,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R417">
         <v>22</v>
@@ -22309,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R419">
         <v>14</v>
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22597,7 +22597,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R424">
         <v>17</v>
@@ -22650,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22700,7 +22700,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R426">
         <v>6</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22803,7 +22803,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R428">
         <v>9</v>
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R429">
         <v>19</v>
@@ -22909,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23003,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23150,7 +23150,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R435">
         <v>19</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23344,7 +23344,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R439">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23441,7 +23441,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23491,7 +23491,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R442">
         <v>12</v>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23635,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23682,7 +23682,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23732,7 +23732,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R447">
         <v>17</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23876,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R450">
         <v>25</v>
@@ -23929,7 +23929,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R451">
         <v>11</v>
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24073,7 +24073,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24123,7 +24123,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R455">
         <v>16</v>
@@ -24173,7 +24173,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24273,7 +24273,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R458">
         <v>20</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24376,7 +24376,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R460">
         <v>16</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24476,7 +24476,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24617,7 +24617,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24714,7 +24714,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R467">
         <v>8</v>
@@ -24767,7 +24767,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R468">
         <v>16</v>
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24870,7 +24870,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R470">
         <v>9</v>
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25252,7 +25252,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R478">
         <v>19</v>
@@ -25305,7 +25305,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R479">
         <v>18</v>
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R481">
         <v>20</v>
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R483">
         <v>3</v>
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R484">
         <v>20</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25652,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25749,7 +25749,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R488">
         <v>9</v>
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25893,7 +25893,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25943,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R492">
         <v>0</v>
@@ -25996,7 +25996,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R493">
         <v>18</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26096,7 +26096,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R495">
         <v>13</v>
@@ -26146,7 +26146,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26196,7 +26196,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R497">
         <v>19</v>
@@ -26246,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26296,7 +26296,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R499">
         <v>11</v>
@@ -26349,7 +26349,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R500">
         <v>9</v>
@@ -26399,7 +26399,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26449,7 +26449,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R502">
         <v>7</v>
@@ -26502,7 +26502,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R503">
         <v>16</v>
@@ -26552,7 +26552,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26602,7 +26602,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R505">
         <v>0</v>
@@ -26655,7 +26655,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R506">
         <v>0</v>
@@ -26699,10 +26699,10 @@
         <v>1</v>
       </c>
       <c r="P507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q507">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
